--- a/medicine/Mort/Terrorisme_en_1979/Terrorisme_en_1979.xlsx
+++ b/medicine/Mort/Terrorisme_en_1979/Terrorisme_en_1979.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,29 +520,273 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-14 janvier France : attentat à la bombe de l’ARB contre la ligne à haute tension partant de la centrale de Brennilis[1].
-Mai
-1er mai, France : Jean-Marc Rouillan et Nathalie Ménigon, membres du groupe Action directe, mitraillent le siège du CNPF à Paris[2],[3].
-Juin
-13 juin, Espagne : attentat à la bombe d'ETA contre le chantier de la centrale nucléaire de Lemóniz[4].
-Juillet
-28 juillet, Espagne : trois bombes d'ETA explosent à Madrid, dans deux gares et à l'aéroport, faisant sept morts et plus de cent blessés[réf. souhaitée].
-Août
-27 août, Irlande du Nord : dix-huit soldats britanniques sont tués par une bombe de l'IRA provisoire à Warrenpoint[réf. souhaitée].
-Septembre
-15 septembre :
-explosion d'une bombe d'Action directe au ministère du Travail[2].
-explosion d'une bombe d'Action directe au ministère de la Santé[2].
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14 janvier France : attentat à la bombe de l’ARB contre la ligne à haute tension partant de la centrale de Brennilis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1979</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1979</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er mai, France : Jean-Marc Rouillan et Nathalie Ménigon, membres du groupe Action directe, mitraillent le siège du CNPF à Paris,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1979</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 juin, Espagne : attentat à la bombe d'ETA contre le chantier de la centrale nucléaire de Lemóniz.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1979</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1979</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>28 juillet, Espagne : trois bombes d'ETA explosent à Madrid, dans deux gares et à l'aéroport, faisant sept morts et plus de cent blessés[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1979</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1979</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>27 août, Irlande du Nord : dix-huit soldats britanniques sont tués par une bombe de l'IRA provisoire à Warrenpoint[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1979</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1979</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>15 septembre :
+explosion d'une bombe d'Action directe au ministère du Travail.
+explosion d'une bombe d'Action directe au ministère de la Santé.
 16 septembre :
-attentat au siège de la Sonacotra[2], revendiqué par Action directe[2].
-mitraillage du Secrétariat aux travailleurs immigrés, rue de Grenelle, par Action directe[2].
-26 septembre : attentat d'Action directe contre le bâtiment de la Délégation des entreprises pour l'emploi[3].
-Novembre
-15 novembre : le terroriste technophobe Ted Kaczynski envoie un colis piégé, via la poste aérienne, qui manque de désintégrer le Boeing 727-223 du vol 444 d'American Airlines entre Chicago et Washington.
-20 novembre - 4 décembre, Arabie saoudite : la prise de la Grande Mosquée de la Mecque (mosquée Al-Masjid al-Haram) par deux cents fondamentalistes islamistes fait trois cent quatre morts (cent soixante-dix-sept terroristes et cent vingt-sept membres des forces de sécurité) et six cents blessés[réf. souhaitée].
-Décembre
-15 décembre, France : le quotidien Le Figaro publie une retranscription de l'entretien accordé par le terroriste Carlos au journal Al Watan El Arabi, dans lequel il revendique l'attentat à la grenade dans la galerie marchande du drugstore Publicis de Saint-Germain-des-Prés à Paris, qui a fait deux morts et trente-quatre blessés le 15 septembre 1974[5].</t>
+attentat au siège de la Sonacotra, revendiqué par Action directe.
+mitraillage du Secrétariat aux travailleurs immigrés, rue de Grenelle, par Action directe.
+26 septembre : attentat d'Action directe contre le bâtiment de la Délégation des entreprises pour l'emploi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1979</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1979</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>15 novembre : le terroriste technophobe Ted Kaczynski envoie un colis piégé, via la poste aérienne, qui manque de désintégrer le Boeing 727-223 du vol 444 d'American Airlines entre Chicago et Washington.
+20 novembre - 4 décembre, Arabie saoudite : la prise de la Grande Mosquée de la Mecque (mosquée Al-Masjid al-Haram) par deux cents fondamentalistes islamistes fait trois cent quatre morts (cent soixante-dix-sept terroristes et cent vingt-sept membres des forces de sécurité) et six cents blessés[réf. souhaitée].</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1979</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1979</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>15 décembre, France : le quotidien Le Figaro publie une retranscription de l'entretien accordé par le terroriste Carlos au journal Al Watan El Arabi, dans lequel il revendique l'attentat à la grenade dans la galerie marchande du drugstore Publicis de Saint-Germain-des-Prés à Paris, qui a fait deux morts et trente-quatre blessés le 15 septembre 1974.</t>
         </is>
       </c>
     </row>
